--- a/biology/Biologie cellulaire et moléculaire/Corpuscule_carotidien/Corpuscule_carotidien.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Corpuscule_carotidien/Corpuscule_carotidien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corpuscule carotidien ou glomus carotidien[1],[2],[3] est un petit groupe de cellules chimioréceptrices et supportant les cellules sustentaculaires[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corpuscule carotidien ou glomus carotidien est un petit groupe de cellules chimioréceptrices et supportant les cellules sustentaculaires,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chimiorécepteurs qu'il contient sont d'importance considérable en physiologie.
 En effet, cet organe est sensible principalement aux changements de pression partielle des gaz respiratoires du sang qui le traversent (pression partielle d'oxygène artériel, teneur du sang en dioxyde de carbone), ainsi qu'aux changements de pH et de température du sang, aux variations de pH.Et en réponse à ces variations, il régule l'équilibre acido-basique du sang ; autrement dit, il maintient un pH sanguin stable.
@@ -543,9 +557,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corpuscule est innervé par le plexus intercarotidien qui naît de l'anastomose du rameau carotidien issu du ganglion cervical supérieur du tronc sympathique avec les rameaux carotidiens du nerf vague (X) et glossopharyngien (IX)[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corpuscule est innervé par le plexus intercarotidien qui naît de l'anastomose du rameau carotidien issu du ganglion cervical supérieur du tronc sympathique avec les rameaux carotidiens du nerf vague (X) et glossopharyngien (IX),.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Anatomo-topographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce glomus est situé dans l'adventice en arrière de la carotide au niveau de sa bifurcation à la hauteur de la quatrième vertèbre cervicale.
 </t>
@@ -605,9 +623,11 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parfois, une tumeur se développe à ses dépens, elle est alors du type paragangliome[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parfois, une tumeur se développe à ses dépens, elle est alors du type paragangliome.
 </t>
         </is>
       </c>
